--- a/data/income_statement/2digits/size/21_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/21_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>645187.53396</v>
+        <v>808545.9784299999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>650844.39987</v>
+        <v>848311.9278300001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>778978.2983800001</v>
+        <v>1051578.2505</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>782888.2559700001</v>
+        <v>975951.78312</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1149857.80836</v>
+        <v>1425875.80951</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1095346.80896</v>
+        <v>1559085.61969</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1175897.81591</v>
+        <v>1417995.92163</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1271061.04708</v>
+        <v>1629046.19586</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1463854.37459</v>
+        <v>1672699.61853</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2653169.0131</v>
+        <v>3186376.62884</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3102776.61162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3475086.13373</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3747755.955</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>538688.5964800001</v>
+        <v>684560.51117</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>565437.65414</v>
+        <v>749805.3462799999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>654748.4897</v>
+        <v>901561.94735</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>635917.24514</v>
+        <v>804295.96822</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>976104.32894</v>
+        <v>1226977.87489</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>947264.83655</v>
+        <v>1351054.03611</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>990283.58855</v>
+        <v>1205520.46564</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1081815.99364</v>
+        <v>1391072.18051</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1178046.70849</v>
+        <v>1355968.36242</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2188370.54865</v>
+        <v>2629339.68659</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2512805.21351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2850595.89461</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2915622.314</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>93511.67612999999</v>
+        <v>98836.69802</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>69740.18553</v>
+        <v>76476.62789</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>106249.22857</v>
+        <v>123007.6411</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>121140.27709</v>
+        <v>142080.80603</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>147008.34812</v>
+        <v>172009.45439</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>119435.02792</v>
+        <v>184979.99495</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>163855.32985</v>
+        <v>188740.40606</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>166532.56985</v>
+        <v>207275.62897</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>249501.35723</v>
+        <v>277997.49041</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>416049.91699</v>
+        <v>508326.74066</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>545799.74358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>576297.80899</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>754986.224</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12987.26135</v>
+        <v>25148.76924</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15666.5602</v>
+        <v>22029.95366</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>17980.58011</v>
+        <v>27008.66205</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>25830.73374</v>
+        <v>29575.00887</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>26745.1313</v>
+        <v>26888.48023</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>28646.94449</v>
+        <v>23051.58863</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>21758.89751</v>
+        <v>23735.04993</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>22712.48359</v>
+        <v>30698.38638</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>36306.30887</v>
+        <v>38733.7657</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>48748.54746</v>
+        <v>48710.20159</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>44171.65453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>48192.43013</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>77147.417</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>70157.00787999999</v>
+        <v>136112.76199</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>106881.2239</v>
+        <v>181758.81691</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>84770.85892</v>
+        <v>196714.42003</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>88383.12944</v>
+        <v>170093.32012</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>151418.51276</v>
+        <v>279798.97668</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>133622.17295</v>
+        <v>240187.12487</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>144381.49663</v>
+        <v>206513.45291</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>135941.9224</v>
+        <v>208413.79376</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>147064.30636</v>
+        <v>174941.87892</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>365204.28948</v>
+        <v>427312.93886</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>403002.37344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>449962.90736</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>361166.546</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4710.924559999999</v>
+        <v>7531.0769</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>7574.36811</v>
+        <v>12174.55261</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5591.74532</v>
+        <v>13416.22958</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>10388.4538</v>
+        <v>17501.30903</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10451.00953</v>
+        <v>16428.23748</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10420.92505</v>
+        <v>15412.14524</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9416.15525</v>
+        <v>14461.03344</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>12245.41256</v>
+        <v>20418.4611</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>25738.1771</v>
+        <v>29709.13558</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>35443.21163000001</v>
+        <v>35760.89813</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>32381.60526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38802.59568</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>43299.451</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>55082.8438</v>
+        <v>116709.2403</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>88639.67273000001</v>
+        <v>158202.28833</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>78292.08540000001</v>
+        <v>169941.68986</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>70483.92719</v>
+        <v>124207.11441</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>126156.11277</v>
+        <v>247896.52786</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>107730.83824</v>
+        <v>209165.42053</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>128429.97479</v>
+        <v>185232.47033</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>115833.96527</v>
+        <v>180001.07237</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>101819.71977</v>
+        <v>125276.28512</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>307849.85819</v>
+        <v>366725.88998</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>353511.51563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>391695.81594</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>304421.418</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>10363.23952</v>
+        <v>11872.44479</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>10667.18306</v>
+        <v>11381.97597</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>887.0282</v>
+        <v>13356.50059</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7510.74845</v>
+        <v>28384.89668</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>14811.39046</v>
+        <v>15474.21134</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>15470.40966</v>
+        <v>15609.5591</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6535.36659</v>
+        <v>6819.94914</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>7862.54457</v>
+        <v>7994.26029</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>19506.40949</v>
+        <v>19956.45822</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>21911.21966</v>
+        <v>24826.15075</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>17109.25255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19464.49574</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>13445.677</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>575030.5260800001</v>
+        <v>672433.2164400001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>543963.17597</v>
+        <v>666553.11092</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>694207.43946</v>
+        <v>854863.83047</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>694505.12653</v>
+        <v>805858.463</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>998439.2956000001</v>
+        <v>1146076.83283</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>961724.63601</v>
+        <v>1318898.49482</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1031516.31928</v>
+        <v>1211482.46872</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1135119.12468</v>
+        <v>1420632.4021</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1316790.06823</v>
+        <v>1497757.73961</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2287964.72362</v>
+        <v>2759063.68998</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2699774.23818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3025123.22637</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3386589.409</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>375130.47481</v>
+        <v>438932.28534</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>329817.08411</v>
+        <v>425045.38252</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>424027.9096</v>
+        <v>548455.9259800001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>436575.9857</v>
+        <v>533269.72685</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>651157.8443400001</v>
+        <v>768094.13025</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>645064.56163</v>
+        <v>880928.1288200001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>681060.94839</v>
+        <v>802101.56645</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>743527.58349</v>
+        <v>917576.51913</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>859803.3320299999</v>
+        <v>963289.09014</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1434308.85404</v>
+        <v>1719099.61681</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1782436.6754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1976352.94956</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2360118.613</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>274871.49085</v>
+        <v>330677.23748</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>264174.6319</v>
+        <v>342267.58945</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>337882.10701</v>
+        <v>428865.0627</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>372565.14531</v>
+        <v>460998.26149</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>548115.0808</v>
+        <v>648515.72407</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>541876.38639</v>
+        <v>755056.24712</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>586903.84646</v>
+        <v>701552.41643</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>574193.40143</v>
+        <v>737075.5570599999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>681724.32953</v>
+        <v>777898.02279</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1188290.45886</v>
+        <v>1469973.23022</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1384318.68636</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1584371.76327</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1898919.086</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>97135.11865</v>
+        <v>100906.45981</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>59749.21095</v>
+        <v>75057.20295000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>79207.29790000001</v>
+        <v>108524.74304</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>48654.88522</v>
+        <v>54953.03584</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>74882.36021</v>
+        <v>79206.54162999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>74558.96586</v>
+        <v>88554.67619</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>64167.72712</v>
+        <v>68412.51694</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>125618.37633</v>
+        <v>134838.01047</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>130845.50193</v>
+        <v>140583.17714</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>173797.59999</v>
+        <v>172825.3629</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>287660.41237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>282205.1835</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>339567.027</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2391.11035</v>
+        <v>6536.48023</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4121.76058</v>
+        <v>5025.412240000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3146.08111</v>
+        <v>6894.2751</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>14144.36466</v>
+        <v>16298.54709</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>26612.93546</v>
+        <v>36604.30873</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>27455.85611</v>
+        <v>34336.26036</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>29516.31729</v>
+        <v>31185.07605</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>41169.39495</v>
+        <v>43182.27866</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>45650.14731</v>
+        <v>43279.73695000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>71631.68147</v>
+        <v>75324.81586</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>106770.45012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>106562.94062</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>117839.698</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>732.75496</v>
+        <v>812.1078199999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1771.48068</v>
+        <v>2695.17788</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3792.42358</v>
+        <v>4171.84514</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1211.59051</v>
+        <v>1019.88243</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1547.46787</v>
+        <v>3767.55582</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1173.35327</v>
+        <v>2980.94515</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>473.05752</v>
+        <v>951.5570300000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2546.41078</v>
+        <v>2480.67294</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1583.35326</v>
+        <v>1528.15326</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>589.1137199999999</v>
+        <v>976.2078299999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3687.12655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3213.06217</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3792.802</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>199900.05127</v>
+        <v>233500.9311</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>214146.09186</v>
+        <v>241507.7284</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>270179.52986</v>
+        <v>306407.90449</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>257929.14083</v>
+        <v>272588.73615</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>347281.45126</v>
+        <v>377982.70258</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>316660.07438</v>
+        <v>437970.366</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>350455.37089</v>
+        <v>409380.90227</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>391591.54119</v>
+        <v>503055.88297</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>456986.7362</v>
+        <v>534468.6494700001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>853655.8695800001</v>
+        <v>1039964.07317</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>917337.5627799999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1048770.27681</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1026470.796</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>159833.81485</v>
+        <v>180463.00628</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>168766.3843</v>
+        <v>198572.40645</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>193210.78752</v>
+        <v>243960.58964</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>204678.49941</v>
+        <v>232452.96675</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>300165.10445</v>
+        <v>372208.45734</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>265904.49991</v>
+        <v>368939.6492</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>284790.61234</v>
+        <v>329854.58445</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>277627.71955</v>
+        <v>332944.8514</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>328876.99866</v>
+        <v>363825.50298</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>499333.37156</v>
+        <v>619221.74771</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>554190.7623200001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>599013.1951</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>556314.937</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3088.79995</v>
+        <v>2933.85504</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1981.88098</v>
+        <v>2524.74843</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>8218.76857</v>
+        <v>7592.23842</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7543.28914</v>
+        <v>7212.773139999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7973.56371</v>
+        <v>9688.020410000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5534.81925</v>
+        <v>11055.45229</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7259.219129999999</v>
+        <v>7905.05561</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4214.45125</v>
+        <v>6841.71956</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3964.35829</v>
+        <v>4512.01486</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>19821.66975</v>
+        <v>35403.18894</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>16090.97607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15498.16472</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13297.662</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>101716.40112</v>
+        <v>112981.6543</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>111844.72346</v>
+        <v>127397.81764</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>124362.74139</v>
+        <v>154762.25926</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>118990.0235</v>
+        <v>130809.59803</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>180125.70458</v>
+        <v>225827.46066</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>169891.28457</v>
+        <v>241672.46631</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>153630.88955</v>
+        <v>200403.01409</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>151685.40692</v>
+        <v>191654.42751</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>194972.03789</v>
+        <v>208875.6742</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>287571.51058</v>
+        <v>358060.30335</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>315442.89038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>362358.04772</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>278358.247</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>55028.61378</v>
+        <v>64547.49694</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>54939.77986</v>
+        <v>68649.84037999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>60629.27756</v>
+        <v>81606.09195999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>78145.18677</v>
+        <v>94430.59557999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>112065.83616</v>
+        <v>136692.97627</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>90478.39609000001</v>
+        <v>116211.7306</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>123900.50366</v>
+        <v>121546.51475</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>121727.86138</v>
+        <v>134448.70433</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>129940.60248</v>
+        <v>150437.81392</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>191940.19123</v>
+        <v>225758.25542</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>222656.89587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>221156.98266</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>264659.028</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>40066.23642</v>
+        <v>53037.92482</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>45379.70756</v>
+        <v>42935.32195000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>76968.74234</v>
+        <v>62447.31485</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>53250.64142</v>
+        <v>40135.7694</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>47116.34681</v>
+        <v>5774.24524</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>50755.57447</v>
+        <v>69030.71679999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>65664.75855</v>
+        <v>79526.31782</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>113963.82164</v>
+        <v>170111.03157</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>128109.73754</v>
+        <v>170643.14649</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>354322.49802</v>
+        <v>420742.32546</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>363146.80046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>449757.08171</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>470155.859</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>33794.10928</v>
+        <v>34668.80114</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>23739.03968</v>
+        <v>34386.1706</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>19276.65031</v>
+        <v>30400.86917</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>19634.81668</v>
+        <v>22872.86503</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>36538.30549</v>
+        <v>49924.64235</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>30032.40485</v>
+        <v>79851.32226</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>44837.76722</v>
+        <v>50253.99159000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>49455.66217</v>
+        <v>57721.42987</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>43858.98142</v>
+        <v>67297.97851999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>268286.17911</v>
+        <v>254643.68536</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>139173.85577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>149870.8615</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>260675.397</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>256.74593</v>
+        <v>299.20807</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.00425</v>
+        <v>30.87439</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>28.46234</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>34.3278</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>22.42186</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>7.72984</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>69.84788999999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>19.69318</v>
+        <v>1197.46619</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>0.11652</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>47.96804</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>88.00007000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>73.00007000000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>218.626</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1.08644</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3846.3736</v>
+        <v>3378.15423</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3621.00079</v>
+        <v>3169.09619</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3558.55681</v>
+        <v>3330.70609</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2136.32079</v>
+        <v>2268.66345</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8001.63952</v>
+        <v>6885.80961</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7720.99887</v>
+        <v>5727.8649</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7580.21537</v>
+        <v>5322.349480000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8055.03842</v>
+        <v>5426.581</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8482.717130000001</v>
+        <v>8819.77615</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>18375.26482</v>
+        <v>18537.65639</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>8758.02852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>11938.70631</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>9738.859</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>45.85151</v>
@@ -1901,94 +1927,104 @@
         <v>223.52397</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1.02514</v>
+        <v>0.8725700000000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>77.40349999999999</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0</v>
+        <v>571.9433299999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6.30894</v>
+        <v>98.57832000000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>0</v>
+        <v>847.46646</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0.0199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1632.723</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>113.45984</v>
+        <v>6513.45984</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1559.86666</v>
+        <v>8195.01231</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1026.45006</v>
+        <v>7615.80846</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>523.14689</v>
+        <v>1768.54586</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1188.93971</v>
+        <v>8462.804169999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>240.4488</v>
+        <v>7374.4925</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>605.64211</v>
+        <v>1490.15986</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>992.0936899999999</v>
+        <v>1459.80525</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>685.57527</v>
+        <v>2357.29323</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>7926.20656</v>
+        <v>8480.556</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>7329.74821</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7795.00517</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5119.925</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>8.284549999999999</v>
+        <v>24.8429</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>139.98082</v>
+        <v>34.73005000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>118.27733</v>
+        <v>118.32306</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>133.31517</v>
+        <v>126.68869</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>393.71991</v>
+        <v>394.3164</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>54.78995</v>
+        <v>354.172</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>119.04671</v>
+        <v>117.67099</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>475.54056</v>
+        <v>135.5825</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1070.85056</v>
+        <v>702.25937</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>372.63057</v>
@@ -1996,89 +2032,104 @@
       <c r="M31" s="48" t="n">
         <v>686.73188</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>13147.54</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12263.69706</v>
+        <v>10358.20913</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8012.24571</v>
+        <v>10890.29456</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9919.8896</v>
+        <v>11333.33827</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9859.092490000001</v>
+        <v>10640.23765</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>16302.98966</v>
+        <v>21498.58489</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13749.13549</v>
+        <v>26780.57035</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>28476.87101</v>
+        <v>32436.29113</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>27109.26345</v>
+        <v>31881.46487</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>26920.06506</v>
+        <v>44949.86777</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>201352.29254</v>
+        <v>179909.41356</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>69284.33129999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>73951.54131999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>164488.824</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>8137.530690000001</v>
+        <v>8216.440200000001</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>7354.08959</v>
+        <v>7357.06958</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>3623.1868</v>
+        <v>6605.45968</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>2919.66268</v>
+        <v>3585.88447</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>3460.4308</v>
+        <v>4782.9592</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>774.0111800000001</v>
+        <v>9925.078939999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>4322.15964</v>
+        <v>6438.54108</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2997.43973</v>
+        <v>5441.77306</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1521.31994</v>
+        <v>2998.29226</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>34258.93789</v>
+        <v>36739.00122</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>46219.46492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>47830.85874</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>25394.71</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>9122.1661</v>
+        <v>5832.63526</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2923.56709</v>
+        <v>4580.80875</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>939.7931600000001</v>
+        <v>1278.27472</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4063.27866</v>
+        <v>4448.517110000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6967.06192</v>
+        <v>7654.22225</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7490.90898</v>
+        <v>29680.54116</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3586.58099</v>
+        <v>4379.13116</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9806.593140000001</v>
+        <v>11606.81367</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3999.33419</v>
+        <v>6198.984570000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5950.47729</v>
+        <v>9706.59172</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6807.53097</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7595.01801</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>20534.19</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>21349.73363</v>
+        <v>27275.28156</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>19174.25823</v>
+        <v>23219.75359</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>22601.76486</v>
+        <v>31241.48813</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>14316.57093</v>
+        <v>17309.93693</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>26609.45181</v>
+        <v>42051.90797</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>22339.76361</v>
+        <v>50873.81667</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>35081.6911</v>
+        <v>42507.74109</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>47204.23401</v>
+        <v>64025.66571</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>43075.91783</v>
+        <v>73707.23276</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>242024.11837</v>
+        <v>279205.65407</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>147952.52833</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>147245.18039</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>219651.873</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5.792149999999999</v>
+        <v>14.45727</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1534.59717</v>
+        <v>1544.8568</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>1638.20512</v>
@@ -2210,76 +2276,86 @@
         <v>1806.69484</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2108.36313</v>
+        <v>2116.84381</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2047.46094</v>
+        <v>2064.9539</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2131.18247</v>
+        <v>2149.24869</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2153.36977</v>
+        <v>2165.06144</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>34.52328</v>
+        <v>34.26791</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>366.85678</v>
+        <v>364.13391</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>32.33038</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1.45992</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>10.235</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2593.10283</v>
+        <v>7323.803190000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1788.06865</v>
+        <v>2638.98109</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1052.55891</v>
+        <v>2031.41821</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1587.09951</v>
+        <v>2356.81967</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>834.79711</v>
+        <v>2311.39892</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4030.16948</v>
+        <v>4996.62637</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1798.21889</v>
+        <v>2268.75504</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3952.68912</v>
+        <v>4478.68585</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>10756.73798</v>
+        <v>10975.07897</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>10696.7897</v>
+        <v>8959.192230000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4823.93288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4066.8895</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>15460.274</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>907.771</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>84.752</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>112.15349</v>
@@ -2308,89 +2384,104 @@
       <c r="M39" s="48" t="n">
         <v>0.008800000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>689.568</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>10164.42955</v>
+        <v>10273.41239</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7397.49341</v>
+        <v>8033.68244</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>14656.73714</v>
+        <v>20383.28837</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8058.198230000001</v>
+        <v>9503.09381</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>18812.33753</v>
+        <v>30339.49036</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>13464.48196</v>
+        <v>30191.51683</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>25135.63041</v>
+        <v>28607.34214</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>31326.56977</v>
+        <v>44368.94444</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>28579.58853</v>
+        <v>56010.63927</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>190031.03451</v>
+        <v>223931.43619</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>91245.37783</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>90997.16504000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>172527.495</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>7051.82197</v>
+        <v>7066.30117</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>7752.14166</v>
+        <v>7755.27891</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>4334.62717</v>
+        <v>6162.9524</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>2507.83171</v>
+        <v>3163.81963</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3698.32125</v>
+        <v>5221.40855</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1357.3107</v>
+        <v>10355.54606</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>3740.08781</v>
+        <v>8129.56941</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2951.59791</v>
+        <v>4379.033969999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1444.33184</v>
+        <v>3251.60816</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>37125.12088</v>
+        <v>40434.60997</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>45571.6676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>46064.4799</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>25975.599</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>5.62739</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1528.95974</v>
+        <v>1683.90915</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>617.20534</v>
+        <v>3246.95435</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>807.48303</v>
+        <v>913.47054</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>356.74664</v>
+        <v>479.50898</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1155.63279</v>
+        <v>2062.76633</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1440.34053</v>
+        <v>3265.17351</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2276.57152</v>
+        <v>1352.82581</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6793.09586</v>
+        <v>8607.02843</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2182.56757</v>
+        <v>3357.46982</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3761.70815</v>
+        <v>5473.67342</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6279.21084</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6115.17723</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4988.702</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>15078.73983</v>
+        <v>24958.20094</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11800.41483</v>
+        <v>19453.50705</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>20653.34308</v>
+        <v>29451.78735</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>20006.40101</v>
+        <v>33609.82636</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>22964.1092</v>
+        <v>34602.05975</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>30866.84145</v>
+        <v>52145.61774</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>38509.58498</v>
+        <v>56842.82726</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>42260.48906</v>
+        <v>71015.71191</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>46537.20026</v>
+        <v>57799.86954</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>125431.12829</v>
+        <v>163966.01186</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>118953.18469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>106464.16464</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>114388.483</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>14080.83767</v>
+        <v>22179.20026</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>10833.24051</v>
+        <v>17654.91885</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>17153.32964</v>
+        <v>25387.54977</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>19251.78437</v>
+        <v>32627.05608</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>21206.77964</v>
+        <v>33091.62644</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>28820.49574</v>
+        <v>50307.81134</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>36147.17949</v>
+        <v>54080.77722</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>39777.76536</v>
+        <v>68532.98821</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>42023.86288</v>
+        <v>53389.77356</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>124158.37565</v>
+        <v>161805.84881</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>116989.49791</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>105508.9041</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>109946.155</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>997.90216</v>
+        <v>2779.00068</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>967.17432</v>
+        <v>1798.5882</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3500.01344</v>
+        <v>4064.23758</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>754.61664</v>
+        <v>982.7702800000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1757.32956</v>
+        <v>1510.43331</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2046.34571</v>
+        <v>1837.8064</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2362.40549</v>
+        <v>2762.05004</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>2482.7237</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4513.33738</v>
+        <v>4410.09598</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1272.75264</v>
+        <v>2160.16305</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1963.68678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>955.26054</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4442.328</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>37431.87224</v>
+        <v>35473.24346</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>38144.07418</v>
+        <v>34648.23190999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>52990.28471</v>
+        <v>32154.90854</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>38562.48615999999</v>
+        <v>12088.87114</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>34081.09129</v>
+        <v>-20955.08013</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>27581.37426</v>
+        <v>45862.60465</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>36911.24969</v>
+        <v>30429.74106</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>73954.76074</v>
+        <v>92791.08382</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>82355.60087000001</v>
+        <v>106434.02271</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>255153.43047</v>
+        <v>232214.34489</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>235414.94321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>345918.59818</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>396790.9</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2417.19921</v>
+        <v>12030.72416</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2026.36624</v>
+        <v>2573.89329</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>9766.22891</v>
+        <v>16709.77403</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6072.27691</v>
+        <v>9552.9076</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9790.194539999999</v>
+        <v>9756.17043</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>34580.96414</v>
+        <v>105205.80662</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>15108.38726</v>
+        <v>48425.13538</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>17207.98186</v>
+        <v>35555.59388</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>27646.97266</v>
+        <v>28874.45874</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>65639.29227000001</v>
+        <v>61088.96325</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>23491.04727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>24718.88709</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>28580.503</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>6.10226</v>
+        <v>40.61299</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>163.24839</v>
+        <v>165.8111</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>91.03616000000001</v>
+        <v>11427.07893</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>119.91253</v>
+        <v>3374.49761</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>12.01681</v>
+        <v>26.90586</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>81.73078</v>
+        <v>98.34111999999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>202.59162</v>
+        <v>144.8573</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>598.88172</v>
+        <v>648.79489</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2484.1914</v>
+        <v>2483.69713</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>81.38325999999999</v>
+        <v>126.69411</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>98.86738000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>92.16382</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1133.469</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2411.09695</v>
+        <v>11990.11117</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1863.11785</v>
+        <v>2408.08219</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>9675.19275</v>
+        <v>5282.6951</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5952.36438</v>
+        <v>6178.40999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9778.177730000001</v>
+        <v>9729.264570000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>34499.23336</v>
+        <v>105107.4655</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>14905.79564</v>
+        <v>48280.27808</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16609.10014</v>
+        <v>34906.79899</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>25162.78126</v>
+        <v>26390.76161</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>65557.90901</v>
+        <v>60962.26914</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>23392.17989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>24626.72327</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>27447.034</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6554.9205</v>
+        <v>12883.92848</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10371.45713</v>
+        <v>10977.67082</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>42784.72719</v>
+        <v>44838.78401</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8133.32497</v>
+        <v>15154.24321</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17932.63224</v>
+        <v>35540.43434000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>26116.1066</v>
+        <v>48455.03358</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19958.64581</v>
+        <v>19500.14147</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>28496.72459</v>
+        <v>41329.92315</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13291.97229</v>
+        <v>19523.07976</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>62483.32161</v>
+        <v>97804.07134000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>40828.03386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>40928.92879</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>65412.268</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2841.0003</v>
+        <v>4204.91636</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>495.30026</v>
+        <v>2137.49063</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1018.54492</v>
+        <v>4976.23001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1545.92718</v>
+        <v>1113.45802</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>8186.65756</v>
+        <v>25157.45101</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1171.96103</v>
+        <v>6421.89311</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1032.07264</v>
+        <v>1076.44529</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1216.03759</v>
+        <v>8979.576650000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>763.3839300000001</v>
+        <v>4429.33717</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>13556.78806</v>
+        <v>14354.0099</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>14228.08311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>14133.82883</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10842.023</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>146.52846</v>
+        <v>169.25759</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>483.53469</v>
+        <v>4824.9457</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>666.91165</v>
+        <v>1092.37269</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>178.42643</v>
+        <v>747.65271</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>627.78346</v>
+        <v>716.7405500000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>240.24476</v>
+        <v>632.54408</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>983.40129</v>
+        <v>7548.19491</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1434.51147</v>
+        <v>2119.57555</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>239.53014</v>
+        <v>2446.31777</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1845.70702</v>
+        <v>2269.07068</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1072.13463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1235.64409</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9104.584000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3567.39174</v>
+        <v>8509.75453</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9392.62218</v>
+        <v>4015.23449</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>41099.27062</v>
+        <v>38770.18131</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6408.97136</v>
+        <v>13293.13248</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9118.191220000001</v>
+        <v>9666.242779999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>24703.90081</v>
+        <v>41400.59639</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17943.17188</v>
+        <v>10875.50127</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>25846.17553</v>
+        <v>30230.77095</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>12289.05822</v>
+        <v>12647.42482</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>47080.82653</v>
+        <v>81180.99076</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>25527.81612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>25559.45587</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>45465.661</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>33294.15095</v>
+        <v>34620.03914</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>29798.98329</v>
+        <v>26244.45438</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>19971.78643</v>
+        <v>4025.89856</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>36501.4381</v>
+        <v>6487.53553</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>25938.65359</v>
+        <v>-46739.34404</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>36046.23179999999</v>
+        <v>102613.37769</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>32060.99114</v>
+        <v>59354.73497</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>62666.01801</v>
+        <v>87016.75455</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>96710.60123999999</v>
+        <v>115785.40169</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>258309.40113</v>
+        <v>195499.2368</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>218077.95662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>329708.55648</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>359959.135</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9555.999830000001</v>
+        <v>9016.692289999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>10297.03449</v>
+        <v>10785.24167</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12266.55959</v>
+        <v>12603.76607</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>12340.07993</v>
+        <v>12694.98282</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15613.77155</v>
+        <v>14257.23516</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>14914.8917</v>
+        <v>14867.21894</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>13250.97245</v>
+        <v>12919.76577</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>22485.54688</v>
+        <v>22605.30321</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>19237.86422</v>
+        <v>19069.49634</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>51808.82055</v>
+        <v>39220.91395</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>40671.19096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>42999.78078</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>58211.185</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>23738.15112</v>
+        <v>25603.34685</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>19501.9488</v>
+        <v>15459.21271</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>7705.22684</v>
+        <v>-8577.86751</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>24161.35817</v>
+        <v>-6207.44729</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>10324.88204</v>
+        <v>-60996.5792</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>21131.3401</v>
+        <v>87746.15875</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>18810.01869</v>
+        <v>46434.9692</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>40180.47113000001</v>
+        <v>64411.45134000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>77472.73702</v>
+        <v>96715.90535</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>206500.58058</v>
+        <v>156278.32285</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>177406.76566</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>286708.7757</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>301747.95</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>45</v>
+      </c>
+      <c r="D59" s="35" t="n">
         <v>50</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>52</v>
       </c>
       <c r="E59" s="35" t="n">
         <v>61</v>
       </c>
       <c r="F59" s="35" t="n">
+        <v>63</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>69</v>
       </c>
-      <c r="G59" s="35" t="n">
-        <v>75</v>
-      </c>
       <c r="H59" s="35" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>58</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>